--- a/topmeperp_v1/UploadFile/ExpBudgetSummary_form.xlsx
+++ b/topmeperp_v1/UploadFile/ExpBudgetSummary_form.xlsx
@@ -28,10 +28,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">     年度：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
   <si>
     <t>制表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,15 +61,16 @@
     <t xml:space="preserve">                            協成水電工程事業有限公司    預算執行彙整表（公司營業費用）              </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>年度：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,20 +136,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="48"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -262,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,18 +283,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +642,10 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -688,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -705,15 +682,15 @@
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="K2" s="2"/>
@@ -722,13 +699,13 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="11"/>
       <c r="D3" s="8"/>
       <c r="E3" s="5"/>
@@ -744,78 +721,78 @@
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18">
+        <v>8</v>
+      </c>
+      <c r="G4" s="18">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16">
+        <v>11</v>
+      </c>
+      <c r="J4" s="18">
+        <v>12</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="21">
-        <v>7</v>
-      </c>
-      <c r="F4" s="21">
-        <v>8</v>
-      </c>
-      <c r="G4" s="21">
-        <v>9</v>
-      </c>
-      <c r="H4" s="25">
-        <v>10</v>
-      </c>
-      <c r="I4" s="19">
-        <v>11</v>
-      </c>
-      <c r="J4" s="21">
-        <v>12</v>
-      </c>
-      <c r="K4" s="21">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21">
-        <v>2</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="N4" s="18">
+        <v>4</v>
+      </c>
+      <c r="O4" s="18">
+        <v>5</v>
+      </c>
+      <c r="P4" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="21">
-        <v>4</v>
-      </c>
-      <c r="O4" s="21">
-        <v>5</v>
-      </c>
-      <c r="P4" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>

--- a/topmeperp_v1/UploadFile/ExpBudgetSummary_form.xlsx
+++ b/topmeperp_v1/UploadFile/ExpBudgetSummary_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Topmep_Web\topmeperp_v1\topmeperp_v1_master\topmeperp_v1\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS.NET\topmeperp_v1\topmeperp_v1\topmeperp_v1\UploadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="彙整表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">彙整表!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,11 +58,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                            協成水電工程事業有限公司    預算執行彙整表（公司營業費用）              </t>
+    <t>年度：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>年度：</t>
+    <t xml:space="preserve">協成水電工程事業有限公司    預算執行彙整表（公司營業費用）              </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,58 +271,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,75 +630,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="16" width="11.21875" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" customWidth="1"/>
+    <col min="9" max="15" width="11.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -718,83 +706,80 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="4" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18">
+      <c r="D4" s="13">
         <v>7</v>
       </c>
-      <c r="F4" s="18">
+      <c r="E4" s="13">
         <v>8</v>
       </c>
-      <c r="G4" s="18">
+      <c r="F4" s="13">
         <v>9</v>
       </c>
-      <c r="H4" s="22">
+      <c r="G4" s="19">
         <v>10</v>
       </c>
-      <c r="I4" s="16">
+      <c r="H4" s="15">
         <v>11</v>
       </c>
-      <c r="J4" s="18">
+      <c r="I4" s="13">
         <v>12</v>
       </c>
-      <c r="K4" s="18">
+      <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="18">
+      <c r="K4" s="13">
         <v>2</v>
       </c>
-      <c r="M4" s="18">
+      <c r="L4" s="13">
         <v>3</v>
       </c>
-      <c r="N4" s="18">
+      <c r="M4" s="13">
         <v>4</v>
       </c>
-      <c r="O4" s="18">
+      <c r="N4" s="13">
         <v>5</v>
       </c>
-      <c r="P4" s="18">
+      <c r="O4" s="13">
         <v>6</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="P4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -810,9 +795,8 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -829,9 +813,8 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -848,9 +831,8 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -867,9 +849,8 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -886,9 +867,8 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -905,9 +885,8 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -924,9 +903,8 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -943,9 +921,8 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -962,9 +939,8 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -981,9 +957,8 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1000,9 +975,8 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1019,9 +993,8 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1038,9 +1011,8 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1057,9 +1029,8 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1076,9 +1047,8 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1095,9 +1065,8 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1114,9 +1083,8 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1133,9 +1101,8 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1152,9 +1119,8 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1171,9 +1137,8 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1190,9 +1155,8 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1209,26 +1173,26 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1" gridLinesSet="0"/>
